--- a/练习记录.xlsx
+++ b/练习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10007"/>
+    <workbookView windowWidth="19284" windowHeight="8544"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="339">
   <si>
     <t>题号</t>
   </si>
@@ -216,6 +216,12 @@
     <t>https://leetcode-cn.com/problems/linked-list-cycle-ii/</t>
   </si>
   <si>
+    <t>排序链表</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sort-list/</t>
+  </si>
+  <si>
     <t>反转链表</t>
   </si>
   <si>
@@ -1238,10 +1244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1368,6 +1374,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1377,7 +1427,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,19 +1449,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1416,60 +1466,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1484,7 +1490,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1573,67 +1579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,13 +1603,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,19 +1633,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,7 +1669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,37 +1687,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,6 +1754,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,6 +1867,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1871,6 +1892,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1891,30 +1936,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1942,21 +1963,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1965,10 +1971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1977,16 +1983,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1995,119 +2001,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2337,6 +2343,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2753,10 +2762,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3034,59 +3043,59 @@
       <c r="I14" s="67"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:9">
-      <c r="A15" s="44">
-        <v>206</v>
+      <c r="A15" s="41">
+        <v>148</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="13">
-        <v>44307</v>
-      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="10"/>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:9">
-      <c r="A16" s="71"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="A16" s="44">
+        <v>206</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="13">
+        <v>44307</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:9">
-      <c r="A17" s="44">
-        <v>20</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:9">
       <c r="A18" s="44">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="B18" s="51" t="s">
         <v>39</v>
@@ -3102,8 +3111,8 @@
       <c r="I18" s="67"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:9">
-      <c r="A19" s="52">
-        <v>84</v>
+      <c r="A19" s="44">
+        <v>155</v>
       </c>
       <c r="B19" s="51" t="s">
         <v>41</v>
@@ -3120,7 +3129,7 @@
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:9">
       <c r="A20" s="52">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="B20" s="51" t="s">
         <v>43</v>
@@ -3136,25 +3145,25 @@
       <c r="I20" s="67"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:9">
-      <c r="A21" s="44">
-        <v>242</v>
+      <c r="A21" s="52">
+        <v>239</v>
       </c>
       <c r="B21" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:9">
-      <c r="A22" s="41">
-        <v>49</v>
+      <c r="A22" s="44">
+        <v>242</v>
       </c>
       <c r="B22" s="51" t="s">
         <v>47</v>
@@ -3170,14 +3179,14 @@
       <c r="I22" s="68"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:9">
-      <c r="A23" s="44">
-        <v>242</v>
+      <c r="A23" s="41">
+        <v>49</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="45" t="s">
         <v>49</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
@@ -3187,98 +3196,92 @@
       <c r="I23" s="68"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:9">
-      <c r="A24" s="41">
-        <v>49</v>
+      <c r="A24" s="44">
+        <v>242</v>
       </c>
       <c r="B24" s="51" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
-      <c r="H24" s="67"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="68"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:9">
-      <c r="A25" s="41"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="45"/>
+      <c r="A25" s="41">
+        <v>49</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>50</v>
+      </c>
       <c r="D25" s="45"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="65"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="67"/>
       <c r="I25" s="68"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:9">
-      <c r="A26" s="41">
-        <v>144</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="81">
-        <v>44268</v>
-      </c>
-      <c r="F26" s="81">
-        <v>44276</v>
-      </c>
-      <c r="G26" s="82" t="s">
-        <v>53</v>
-      </c>
+      <c r="A26" s="41"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="67"/>
       <c r="I26" s="68"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:9">
       <c r="A27" s="41">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B27" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="E27" s="82">
+        <v>44268</v>
+      </c>
+      <c r="F27" s="82">
+        <v>44276</v>
+      </c>
+      <c r="G27" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="81">
-        <v>44268</v>
-      </c>
-      <c r="F27" s="81">
-        <v>44303</v>
-      </c>
-      <c r="G27" s="45"/>
       <c r="H27" s="67"/>
       <c r="I27" s="68"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:9">
       <c r="A28" s="41">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="B28" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="45" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="81">
-        <v>44303</v>
-      </c>
-      <c r="F28" s="81">
+        <v>54</v>
+      </c>
+      <c r="E28" s="82">
+        <v>44268</v>
+      </c>
+      <c r="F28" s="82">
         <v>44303</v>
       </c>
       <c r="G28" s="45"/>
@@ -3286,51 +3289,55 @@
       <c r="I28" s="68"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:9">
-      <c r="A29" s="41"/>
+      <c r="A29" s="41">
+        <v>145</v>
+      </c>
       <c r="B29" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="70" t="s">
+        <v>59</v>
+      </c>
       <c r="D29" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
+        <v>54</v>
+      </c>
+      <c r="E29" s="82">
+        <v>44303</v>
+      </c>
+      <c r="F29" s="82">
+        <v>44303</v>
+      </c>
       <c r="G29" s="45"/>
       <c r="H29" s="67"/>
       <c r="I29" s="68"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:9">
-      <c r="A30" s="44">
-        <v>590</v>
-      </c>
+      <c r="A30" s="41"/>
       <c r="B30" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="70"/>
+      <c r="D30" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="45"/>
       <c r="H30" s="67"/>
       <c r="I30" s="68"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:9">
       <c r="A31" s="44">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B31" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="D31" s="45" t="s">
         <v>64</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>62</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
@@ -3339,8 +3346,8 @@
       <c r="I31" s="68"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:9">
-      <c r="A32" s="41">
-        <v>429</v>
+      <c r="A32" s="44">
+        <v>589</v>
       </c>
       <c r="B32" s="51" t="s">
         <v>65</v>
@@ -3349,135 +3356,133 @@
         <v>66</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="81">
-        <v>44268</v>
-      </c>
-      <c r="F32" s="81">
-        <v>44276</v>
-      </c>
-      <c r="G32" s="83" t="s">
-        <v>68</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="67"/>
       <c r="I32" s="68"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:9">
-      <c r="A33" s="84"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="98"/>
+      <c r="A33" s="41">
+        <v>429</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="82">
+        <v>44268</v>
+      </c>
+      <c r="F33" s="82">
+        <v>44276</v>
+      </c>
+      <c r="G33" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="67"/>
+      <c r="I33" s="68"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:9">
-      <c r="A34" s="90">
+      <c r="A34" s="85"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="99"/>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="1:9">
+      <c r="A35" s="91">
         <v>347</v>
       </c>
-      <c r="B34" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="93" t="s">
+      <c r="B35" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="66">
+      <c r="C35" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="66">
         <v>44269</v>
       </c>
-      <c r="F34" s="66">
+      <c r="F35" s="66">
         <v>44299</v>
       </c>
-      <c r="G34" s="94"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="1:9">
-      <c r="A35" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="G35" s="95"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+    </row>
+    <row r="36" ht="20" customHeight="1" spans="1:9">
+      <c r="A36" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-    </row>
-    <row r="36" ht="20" customHeight="1" spans="1:9">
-      <c r="A36" s="52">
+      <c r="B36" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+    </row>
+    <row r="37" ht="20" customHeight="1" spans="1:9">
+      <c r="A37" s="52">
         <v>239</v>
       </c>
-      <c r="B36" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-    </row>
-    <row r="37" ht="20" customHeight="1" spans="1:9">
-      <c r="A37" s="44">
-        <v>26</v>
-      </c>
       <c r="B37" s="51" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="81">
-        <v>44269</v>
-      </c>
-      <c r="F37" s="81">
-        <v>44276</v>
-      </c>
-      <c r="G37" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
+        <v>46</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:9">
       <c r="A38" s="44">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="B38" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="D38" s="45"/>
+      <c r="E38" s="82">
+        <v>44269</v>
+      </c>
+      <c r="F38" s="82">
+        <v>44276</v>
+      </c>
+      <c r="G38" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="66">
-        <v>44269</v>
-      </c>
-      <c r="F38" s="66">
-        <v>44299</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:9">
       <c r="A39" s="44">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="B39" s="51" t="s">
         <v>80</v>
@@ -3486,59 +3491,59 @@
         <v>81</v>
       </c>
       <c r="D39" s="45"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="66">
+        <v>44269</v>
+      </c>
+      <c r="F39" s="66">
+        <v>44299</v>
+      </c>
       <c r="G39" s="10"/>
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:9">
       <c r="A40" s="44">
-        <v>66</v>
-      </c>
-      <c r="B40" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="51" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="66">
-        <v>44264</v>
-      </c>
-      <c r="F40" s="66">
-        <v>44305</v>
-      </c>
+      <c r="D40" s="45"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:9">
-      <c r="A41" s="41">
-        <v>641</v>
-      </c>
-      <c r="B41" s="51" t="s">
+      <c r="A41" s="44">
+        <v>66</v>
+      </c>
+      <c r="B41" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="D41" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="81">
-        <v>44269</v>
-      </c>
-      <c r="F41" s="81">
-        <v>44276</v>
-      </c>
-      <c r="G41" s="88"/>
+      <c r="E41" s="66">
+        <v>44264</v>
+      </c>
+      <c r="F41" s="66">
+        <v>44305</v>
+      </c>
+      <c r="G41" s="10"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:9">
-      <c r="A42" s="52">
-        <v>42</v>
+      <c r="A42" s="41">
+        <v>641</v>
       </c>
       <c r="B42" s="51" t="s">
         <v>87</v>
@@ -3546,29 +3551,50 @@
       <c r="C42" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="82">
+        <v>44269</v>
+      </c>
+      <c r="F42" s="82">
+        <v>44276</v>
+      </c>
+      <c r="G42" s="89"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:9">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="52">
+        <v>42</v>
+      </c>
+      <c r="B43" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="C43" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+    </row>
+    <row r="44" ht="20" customHeight="1" spans="1:9">
+      <c r="A44" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="68"/>
+      <c r="B44" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3580,40 +3606,41 @@
     <hyperlink ref="C4" r:id="rId1" display="https://leetcode-cn.com/problems/container-with-most-water/" tooltip="https://leetcode-cn.com/problems/container-with-most-water/"/>
     <hyperlink ref="C6" r:id="rId2" display="https://leetcode-cn.com/problems/move-zeroes/" tooltip="https://leetcode-cn.com/problems/move-zeroes/"/>
     <hyperlink ref="C5" r:id="rId3" display="https://leetcode-cn.com/problems/3sum/ (高频老题）" tooltip="https://leetcode-cn.com/problems/3sum/ (高频老题）"/>
-    <hyperlink ref="C15" r:id="rId4" display="https://leetcode.com/problems/reverse-linked-list/" tooltip="https://leetcode.com/problems/reverse-linked-list/"/>
+    <hyperlink ref="C16" r:id="rId4" display="https://leetcode.com/problems/reverse-linked-list/" tooltip="https://leetcode.com/problems/reverse-linked-list/"/>
     <hyperlink ref="C10" r:id="rId5" display="https://leetcode-cn.com/problems/swap-nodes-in-pairs/" tooltip="https://leetcode-cn.com/problems/swap-nodes-in-pairs/"/>
     <hyperlink ref="C13" r:id="rId6" display="https://leetcode.com/problems/linked-list-cycle" tooltip="https://leetcode.com/problems/linked-list-cycle"/>
     <hyperlink ref="C14" r:id="rId7" display="https://leetcode-cn.com/problems/linked-list-cycle-ii/" tooltip="https://leetcode-cn.com/problems/linked-list-cycle-ii/"/>
     <hyperlink ref="C11" r:id="rId8" display="https://leetcode.com/problems/reverse-nodes-in-k-group/" tooltip="https://leetcode.com/problems/reverse-nodes-in-k-group/"/>
-    <hyperlink ref="C17" r:id="rId9" display="https://leetcode-cn.com/problems/valid-parentheses/" tooltip="https://leetcode-cn.com/problems/valid-parentheses/"/>
-    <hyperlink ref="C18" r:id="rId10" display="https://leetcode-cn.com/problems/min-stack/" tooltip="https://leetcode-cn.com/problems/min-stack/"/>
-    <hyperlink ref="C19" r:id="rId11" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram" tooltip="https://leetcode-cn.com/problems/largest-rectangle-in-histogram"/>
-    <hyperlink ref="C20" r:id="rId12" display="https://leetcode-cn.com/problems/sliding-window-maximum" tooltip="https://leetcode-cn.com/problems/sliding-window-maximum"/>
-    <hyperlink ref="C21" r:id="rId13" display="https://leetcode-cn.com/problems/valid-anagram/description/" tooltip="https://leetcode-cn.com/problems/valid-anagram/description/"/>
-    <hyperlink ref="C22" r:id="rId14" display="https://leetcode-cn.com/problems/group-anagrams/" tooltip="https://leetcode-cn.com/problems/group-anagrams/"/>
-    <hyperlink ref="C23" r:id="rId15" display="https://leetcode-cn.com/problems/valid-anagram/" tooltip="https://leetcode-cn.com/problems/valid-anagram/"/>
-    <hyperlink ref="C24" r:id="rId14" display="https://leetcode-cn.com/problems/group-anagrams/" tooltip="https://leetcode-cn.com/problems/group-anagrams/"/>
-    <hyperlink ref="C27" r:id="rId16" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" tooltip="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/"/>
-    <hyperlink ref="C26" r:id="rId17" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" tooltip="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
-    <hyperlink ref="C30" r:id="rId18" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/"/>
-    <hyperlink ref="C31" r:id="rId19" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/"/>
-    <hyperlink ref="C32" r:id="rId20" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/"/>
-    <hyperlink ref="C35" r:id="rId21" display="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/" tooltip="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/"/>
-    <hyperlink ref="C36" r:id="rId12" display="https://leetcode-cn.com/problems/sliding-window-maximum" tooltip="https://leetcode-cn.com/problems/sliding-window-maximum"/>
-    <hyperlink ref="C37" r:id="rId22" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" tooltip="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/"/>
-    <hyperlink ref="C38" r:id="rId23" display="https://leetcode-cn.com/problems/rotate-array/" tooltip="https://leetcode-cn.com/problems/rotate-array/"/>
+    <hyperlink ref="C18" r:id="rId9" display="https://leetcode-cn.com/problems/valid-parentheses/" tooltip="https://leetcode-cn.com/problems/valid-parentheses/"/>
+    <hyperlink ref="C19" r:id="rId10" display="https://leetcode-cn.com/problems/min-stack/" tooltip="https://leetcode-cn.com/problems/min-stack/"/>
+    <hyperlink ref="C20" r:id="rId11" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram" tooltip="https://leetcode-cn.com/problems/largest-rectangle-in-histogram"/>
+    <hyperlink ref="C21" r:id="rId12" display="https://leetcode-cn.com/problems/sliding-window-maximum" tooltip="https://leetcode-cn.com/problems/sliding-window-maximum"/>
+    <hyperlink ref="C22" r:id="rId13" display="https://leetcode-cn.com/problems/valid-anagram/description/" tooltip="https://leetcode-cn.com/problems/valid-anagram/description/"/>
+    <hyperlink ref="C23" r:id="rId14" display="https://leetcode-cn.com/problems/group-anagrams/" tooltip="https://leetcode-cn.com/problems/group-anagrams/"/>
+    <hyperlink ref="C24" r:id="rId15" display="https://leetcode-cn.com/problems/valid-anagram/" tooltip="https://leetcode-cn.com/problems/valid-anagram/"/>
+    <hyperlink ref="C25" r:id="rId14" display="https://leetcode-cn.com/problems/group-anagrams/" tooltip="https://leetcode-cn.com/problems/group-anagrams/"/>
+    <hyperlink ref="C28" r:id="rId16" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" tooltip="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="C27" r:id="rId17" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" tooltip="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
+    <hyperlink ref="C31" r:id="rId18" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/"/>
+    <hyperlink ref="C32" r:id="rId19" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/"/>
+    <hyperlink ref="C33" r:id="rId20" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/"/>
+    <hyperlink ref="C36" r:id="rId21" display="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/" tooltip="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/"/>
+    <hyperlink ref="C37" r:id="rId12" display="https://leetcode-cn.com/problems/sliding-window-maximum" tooltip="https://leetcode-cn.com/problems/sliding-window-maximum"/>
+    <hyperlink ref="C38" r:id="rId22" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" tooltip="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/"/>
+    <hyperlink ref="C39" r:id="rId23" display="https://leetcode-cn.com/problems/rotate-array/" tooltip="https://leetcode-cn.com/problems/rotate-array/"/>
     <hyperlink ref="C9" r:id="rId24" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/" tooltip="https://leetcode-cn.com/problems/merge-two-sorted-lists/"/>
-    <hyperlink ref="C39" r:id="rId25" display="https://leetcode-cn.com/problems/merge-sorted-array/" tooltip="https://leetcode-cn.com/problems/merge-sorted-array/"/>
+    <hyperlink ref="C40" r:id="rId25" display="https://leetcode-cn.com/problems/merge-sorted-array/" tooltip="https://leetcode-cn.com/problems/merge-sorted-array/"/>
     <hyperlink ref="C3" r:id="rId26" display="https://leetcode-cn.com/problems/two-sum/" tooltip="https://leetcode-cn.com/problems/two-sum/"/>
-    <hyperlink ref="C40" r:id="rId27" display="https://leetcode-cn.com/problems/plus-one/" tooltip="https://leetcode-cn.com/problems/plus-one/"/>
-    <hyperlink ref="C41" r:id="rId28" display="https://leetcode.com/problems/design-circular-deque" tooltip="https://leetcode.com/problems/design-circular-deque"/>
-    <hyperlink ref="C42" r:id="rId29" display="https://leetcode.com/problems/trapping-rain-water/" tooltip="https://leetcode.com/problems/trapping-rain-water/"/>
-    <hyperlink ref="C43" r:id="rId30" display="https://leetcode-cn.com/problems/chou-shu-lcof/" tooltip="https://leetcode-cn.com/problems/chou-shu-lcof/"/>
-    <hyperlink ref="C34" r:id="rId31" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" tooltip="https://leetcode-cn.com/problems/top-k-frequent-elements/"/>
+    <hyperlink ref="C41" r:id="rId27" display="https://leetcode-cn.com/problems/plus-one/" tooltip="https://leetcode-cn.com/problems/plus-one/"/>
+    <hyperlink ref="C42" r:id="rId28" display="https://leetcode.com/problems/design-circular-deque" tooltip="https://leetcode.com/problems/design-circular-deque"/>
+    <hyperlink ref="C43" r:id="rId29" display="https://leetcode.com/problems/trapping-rain-water/" tooltip="https://leetcode.com/problems/trapping-rain-water/"/>
+    <hyperlink ref="C44" r:id="rId30" display="https://leetcode-cn.com/problems/chou-shu-lcof/" tooltip="https://leetcode-cn.com/problems/chou-shu-lcof/"/>
+    <hyperlink ref="C35" r:id="rId31" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" tooltip="https://leetcode-cn.com/problems/top-k-frequent-elements/"/>
     <hyperlink ref="C12" r:id="rId32" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list-ii/"/>
-    <hyperlink ref="C28" r:id="rId33" display="https://leetcode-cn.com/problems/binary-tree-postorder-traversal/"/>
-    <hyperlink ref="B40" r:id="rId27" display="加一" tooltip="https://leetcode-cn.com/problems/plus-one/"/>
+    <hyperlink ref="C29" r:id="rId33" display="https://leetcode-cn.com/problems/binary-tree-postorder-traversal/"/>
+    <hyperlink ref="B41" r:id="rId27" display="加一" tooltip="https://leetcode-cn.com/problems/plus-one/"/>
     <hyperlink ref="C7" r:id="rId34" display="https://leetcode-cn.com/problems/bulls-and-cows/"/>
+    <hyperlink ref="C15" r:id="rId35" display="https://leetcode-cn.com/problems/sort-list/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3669,11 +3696,11 @@
     </row>
     <row r="2" ht="78" customHeight="1" spans="1:9">
       <c r="A2" s="25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -3684,7 +3711,7 @@
     </row>
     <row r="3" ht="15.6" customHeight="1" spans="1:9">
       <c r="A3" s="59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -3711,10 +3738,10 @@
         <v>226</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -3728,10 +3755,10 @@
         <v>98</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -3745,10 +3772,10 @@
         <v>104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -3762,10 +3789,10 @@
         <v>111</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -3779,10 +3806,10 @@
         <v>297</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -3796,10 +3823,10 @@
         <v>50</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="60">
@@ -3815,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -3832,10 +3859,10 @@
         <v>169</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="10"/>
@@ -3849,13 +3876,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E13" s="62">
         <v>44304</v>
@@ -3870,17 +3897,17 @@
         <v>51</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="60">
         <v>44275</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -3891,10 +3918,10 @@
         <v>102</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="62">
@@ -3910,10 +3937,10 @@
         <v>433</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -3927,10 +3954,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -3944,10 +3971,10 @@
         <v>515</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -3961,10 +3988,10 @@
         <v>69</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="10"/>
@@ -3978,10 +4005,10 @@
         <v>367</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="10"/>
@@ -3992,7 +4019,7 @@
     </row>
     <row r="21" ht="15.6" customHeight="1" spans="1:9">
       <c r="A21" s="59" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -4019,10 +4046,10 @@
         <v>236</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="62">
@@ -4038,10 +4065,10 @@
         <v>105</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -4055,10 +4082,10 @@
         <v>77</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -4072,10 +4099,10 @@
         <v>46</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -4089,10 +4116,10 @@
         <v>47</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -4106,10 +4133,10 @@
         <v>860</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -4123,10 +4150,10 @@
         <v>122</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="60">
@@ -4142,10 +4169,10 @@
         <v>455</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -4159,10 +4186,10 @@
         <v>874</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="64">
@@ -4178,10 +4205,10 @@
         <v>127</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -4195,10 +4222,10 @@
         <v>200</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="60">
@@ -4214,10 +4241,10 @@
         <v>529</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -4231,10 +4258,10 @@
         <v>55</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -4248,10 +4275,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -4265,10 +4292,10 @@
         <v>74</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -4282,10 +4309,10 @@
         <v>153</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -4299,10 +4326,10 @@
         <v>126</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -4316,10 +4343,10 @@
         <v>45</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="60">
@@ -6141,11 +6168,11 @@
     </row>
     <row r="2" ht="15.6" customHeight="1" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -6156,7 +6183,7 @@
     </row>
     <row r="3" ht="15.6" customHeight="1" spans="1:9">
       <c r="A3" s="36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -6183,13 +6210,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E5" s="38">
         <v>44279</v>
@@ -6204,13 +6231,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E6" s="38">
         <v>44279</v>
@@ -6225,13 +6252,13 @@
         <v>1143</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="E7" s="13">
         <v>43918</v>
@@ -6246,13 +6273,13 @@
         <v>70</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E8" s="21">
         <v>43898</v>
@@ -6269,13 +6296,13 @@
         <v>120</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="46"/>
@@ -6288,13 +6315,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E10" s="21">
         <v>43926</v>
@@ -6309,13 +6336,13 @@
         <v>152</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="39"/>
@@ -6328,10 +6355,10 @@
         <v>322</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -6345,10 +6372,10 @@
         <v>198</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -6362,10 +6389,10 @@
         <v>213</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -6379,10 +6406,10 @@
         <v>121</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -6396,10 +6423,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -6413,10 +6440,10 @@
         <v>123</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -6430,10 +6457,10 @@
         <v>309</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -6447,10 +6474,10 @@
         <v>188</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -6464,10 +6491,10 @@
         <v>714</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -6478,7 +6505,7 @@
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:9">
       <c r="A21" s="53" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
@@ -6494,10 +6521,10 @@
         <v>279</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -6511,10 +6538,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -6528,10 +6555,10 @@
         <v>55</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -6545,10 +6572,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -6562,10 +6589,10 @@
         <v>980</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -6579,10 +6606,10 @@
         <v>518</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -6593,7 +6620,7 @@
     </row>
     <row r="28" ht="15.6" customHeight="1" spans="1:9">
       <c r="A28" s="36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -6620,13 +6647,13 @@
         <v>64</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E30" s="56">
         <v>44282</v>
@@ -6641,13 +6668,13 @@
         <v>91</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E31" s="56">
         <v>44282</v>
@@ -6662,13 +6689,13 @@
         <v>221</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E32" s="56">
         <v>44283</v>
@@ -6683,13 +6710,13 @@
         <v>621</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E33" s="56">
         <v>44283</v>
@@ -6704,13 +6731,13 @@
         <v>647</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E34" s="56">
         <v>44283</v>
@@ -6725,10 +6752,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -6742,10 +6769,10 @@
         <v>363</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -6759,10 +6786,10 @@
         <v>403</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -6776,10 +6803,10 @@
         <v>410</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -6793,10 +6820,10 @@
         <v>552</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -6810,10 +6837,10 @@
         <v>76</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -6827,10 +6854,10 @@
         <v>312</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -8653,11 +8680,11 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -8668,7 +8695,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -8695,13 +8722,13 @@
         <v>208</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E5" s="21">
         <v>44290</v>
@@ -8716,19 +8743,19 @@
         <v>212</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E6" s="21">
         <v>44290</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -8739,13 +8766,13 @@
         <v>547</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E7" s="21">
         <v>44289</v>
@@ -8760,13 +8787,13 @@
         <v>200</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E8" s="13">
         <v>44288</v>
@@ -8781,10 +8808,10 @@
         <v>130</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -8798,13 +8825,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E10" s="21">
         <v>44290</v>
@@ -8819,16 +8846,16 @@
         <v>51</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -8840,10 +8867,10 @@
         <v>36</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="33"/>
@@ -8857,10 +8884,10 @@
         <v>37</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="33"/>
@@ -8874,10 +8901,10 @@
         <v>127</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="33"/>
@@ -8891,10 +8918,10 @@
         <v>433</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -8908,10 +8935,10 @@
         <v>1091</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -8925,10 +8952,10 @@
         <v>773</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -8942,13 +8969,13 @@
         <v>191</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E18" s="35">
         <v>44290</v>
@@ -8963,13 +8990,13 @@
         <v>231</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>266</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>264</v>
       </c>
       <c r="E19" s="35">
         <v>44290</v>
@@ -8984,13 +9011,13 @@
         <v>190</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E20" s="35">
         <v>44292</v>
@@ -9005,10 +9032,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="10"/>
@@ -9022,10 +9049,10 @@
         <v>52</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="10"/>
@@ -9039,10 +9066,10 @@
         <v>338</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="10"/>
@@ -9130,11 +9157,11 @@
     </row>
     <row r="2" ht="62.4" customHeight="1" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -9145,7 +9172,7 @@
     </row>
     <row r="3" ht="15.6" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -9172,10 +9199,10 @@
         <v>146</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -9189,10 +9216,10 @@
         <v>62</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -9208,10 +9235,10 @@
         <v>198</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -9225,10 +9252,10 @@
         <v>64</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -9242,10 +9269,10 @@
         <v>121</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -9259,10 +9286,10 @@
         <v>746</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -9276,10 +9303,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -9293,10 +9320,10 @@
         <v>709</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -9310,10 +9337,10 @@
         <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -9327,10 +9354,10 @@
         <v>771</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -9344,10 +9371,10 @@
         <v>387</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -9361,10 +9388,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -9378,10 +9405,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -9395,10 +9422,10 @@
         <v>344</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -9412,10 +9439,10 @@
         <v>541</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -9429,10 +9456,10 @@
         <v>151</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -9446,10 +9473,10 @@
         <v>557</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -9463,10 +9490,10 @@
         <v>917</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -9480,10 +9507,10 @@
         <v>242</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -9497,10 +9524,10 @@
         <v>49</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -9514,10 +9541,10 @@
         <v>438</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -9531,10 +9558,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -9548,10 +9575,10 @@
         <v>680</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -9565,10 +9592,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -9582,10 +9609,10 @@
         <v>1143</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -9599,10 +9626,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -9616,10 +9643,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -9633,10 +9660,10 @@
         <v>115</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -9647,7 +9674,7 @@
     </row>
     <row r="33" ht="15.6" customHeight="1" spans="1:9">
       <c r="A33" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -9674,10 +9701,10 @@
         <v>1122</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="20">
@@ -9693,10 +9720,10 @@
         <v>242</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="21">
@@ -9712,10 +9739,10 @@
         <v>1244</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="22"/>
@@ -9729,10 +9756,10 @@
         <v>56</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="21">
@@ -9748,10 +9775,10 @@
         <v>493</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -9765,17 +9792,17 @@
         <v>205</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="20">
         <v>44297</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -9786,19 +9813,19 @@
         <v>300</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E41" s="23">
         <v>44294</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -9809,10 +9836,10 @@
         <v>91</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -9826,10 +9853,10 @@
         <v>32</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -9843,10 +9870,10 @@
         <v>818</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
